--- a/DOC/要件定義/開発内容.xlsx
+++ b/DOC/要件定義/開発内容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960ED956-6E4A-4C70-96A3-90422072E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27439B4F-6954-47FE-8682-D899B9EFD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
+    <workbookView xWindow="1035" yWindow="750" windowWidth="23565" windowHeight="13995" activeTab="1" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
   </bookViews>
   <sheets>
     <sheet name="PH2" sheetId="1" r:id="rId1"/>
@@ -3551,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458AA36D-2275-42CE-85AC-0320824C02D7}">
   <dimension ref="A2:AM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/DOC/要件定義/開発内容.xlsx
+++ b/DOC/要件定義/開発内容.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27439B4F-6954-47FE-8682-D899B9EFD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E76DA-7AF4-4EFD-A095-CADC8641D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="750" windowWidth="23565" windowHeight="13995" activeTab="1" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
+    <workbookView xWindow="960" yWindow="336" windowWidth="21528" windowHeight="11964" activeTab="4" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
   </bookViews>
   <sheets>
     <sheet name="PH2" sheetId="1" r:id="rId1"/>
     <sheet name="PH2マスタスケジュール" sheetId="2" r:id="rId2"/>
     <sheet name="PH3" sheetId="3" r:id="rId3"/>
+    <sheet name="支払リストサンプル" sheetId="4" r:id="rId4"/>
+    <sheet name="銀行口座リストサンプル" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="172">
   <si>
     <t>1)</t>
     <phoneticPr fontId="1"/>
@@ -565,821 +567,1014 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>口座通帳から下記内容を拾う</t>
+    <t>直接に仕訳入力できる。</t>
     <rPh sb="0" eb="2">
-      <t>コウザ</t>
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次処理で、下記機能から導入できる</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ツウチョウ</t>
+      <t>ショリ</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>カキ</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払管理</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BP社へ支払を管理する</t>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月初、事務メールからBPさんからの請求書を拾う（手動）</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジム</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
       <t>ヒロ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="24" eb="26">
+      <t>シュドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムにアップロードする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>５）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>７)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・支払管理</t>
+    <rPh sb="1" eb="3">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・給料管理</t>
+    <rPh sb="1" eb="3">
+      <t>キュウリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・請求管理</t>
+    <rPh sb="1" eb="3">
+      <t>セイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試算表</t>
+    <rPh sb="0" eb="3">
+      <t>シサンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月単位で試算機能</t>
+    <rPh sb="0" eb="3">
+      <t>ツキタンイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シサン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間指定で試算</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決算機能</t>
+    <rPh sb="0" eb="2">
+      <t>ケッサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>４)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>６)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんなの家</t>
+    <rPh sb="4" eb="5">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ機能</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>技術資料管理機能</t>
+    <rPh sb="0" eb="2">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部活管理</t>
+    <rPh sb="0" eb="2">
+      <t>ブカツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真などアップロードダウンロード機能</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12月</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMS/EMSMブランチ作成</t>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・社員管理</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・年末調整</t>
+    <rPh sb="1" eb="5">
+      <t>ネンマツチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phas1リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phase1結合試験</t>
+    <rPh sb="6" eb="8">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費管理</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行口座管理</t>
+    <rPh sb="0" eb="4">
+      <t>ギンコウコウザ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計-仕訳帳</t>
+  </si>
+  <si>
+    <t>試算表</t>
+  </si>
+  <si>
+    <t>8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次処理</t>
+  </si>
+  <si>
+    <t>月次処理</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下記データを仕訳に導入</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>９)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Phas2リリース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員管理</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMSM新規時</t>
+    <rPh sb="4" eb="6">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部門、初期パスワードを追加</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMS社員自分情報変更画面に</t>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属部門に表示のみ、変更不可にする</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブモン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物：基本設計、ソース、結合試験</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当：</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①待機者</t>
+    <rPh sb="1" eb="3">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②新入社員</t>
+    <rPh sb="1" eb="5">
+      <t>シンニュウシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③兼務</t>
+    <rPh sb="1" eb="3">
+      <t>ケンム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楊さん</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄：</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ph2ブランチ設定。</t>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ph2ブランチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存ソースの上、下記機能追加</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO1:下記経費種類をマスタ化する</t>
+    <rPh sb="6" eb="8">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（マスタ化＝リスト、新規、更新機能）</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO2:経費証跡機能</t>
+    <rPh sb="6" eb="8">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経費ごと、証跡（PDFファイル、あるいは画像などファイル）２ファイル管理できる</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウセキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（アップロード/ダウンロード機能）</t>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO1:マスタ化</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TODO2:証跡管理</t>
+    <rPh sb="6" eb="8">
+      <t>ショウセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>孫岩岩</t>
+    <rPh sb="0" eb="1">
+      <t>ソン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏名</t>
+    <rPh sb="0" eb="2">
+      <t>シメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>所属会社</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>派遣(請負）先会社</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウケオイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>外注単価（税抜）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>外注金額（税抜）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計1(税抜)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゼイヌ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>外注金額（税込）</t>
+    <rPh sb="0" eb="2">
+      <t>ガイチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計2(税込)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>手数料</t>
     <rPh sb="0" eb="3">
       <t>テスウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雇用：</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>振込日</t>
     <rPh sb="0" eb="2">
-      <t>コヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>厚生：</t>
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>記入日</t>
+    <rPh sb="0" eb="3">
+      <t>キニュウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>備考</t>
     <rPh sb="0" eb="2">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>給料上のデータと突合し、一致するかを判断</t>
-  </si>
-  <si>
-    <t>消費税</t>
-    <rPh sb="0" eb="3">
-      <t>ショウヒゼイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>法人税</t>
-    <rPh sb="0" eb="3">
-      <t>ホウジンゼイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住民税</t>
-    <rPh sb="0" eb="3">
-      <t>ジュウミンゼイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>eLTax/eTax</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>雇用/厚生　は既に自動控除</t>
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Aさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bさん</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>X株式会社</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Y株式会社</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(株)Z</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日付</t>
     <rPh sb="0" eb="2">
-      <t>コヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>直接に仕訳入力できる。</t>
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取引区分</t>
     <rPh sb="0" eb="2">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シワケ</t>
+      <t>トリヒキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>摘要</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出金額</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入金額</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残高</t>
+    <rPh sb="0" eb="2">
+      <t>ザンタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024.7.1</t>
+  </si>
+  <si>
+    <t>電話　　　</t>
+  </si>
+  <si>
+    <t>口座振替３</t>
+  </si>
+  <si>
+    <t>トシキコウ０６ガツ</t>
+  </si>
+  <si>
+    <t>社会保険料</t>
+  </si>
+  <si>
+    <t>口座通帳を口座テーブルに登録する</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウチョウ</t>
     </rPh>
     <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月次処理で、下記機能から導入できる</t>
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付指定し、検索できる。</t>
     <rPh sb="0" eb="2">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支払管理</t>
-    <rPh sb="0" eb="2">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BP社へ支払を管理する</t>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リスト・変更、新規追加機能</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>請求書をアップロードして管理する機能</t>
-    <rPh sb="0" eb="3">
-      <t>セイキュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月初、事務メールからBPさんからの請求書を拾う（手動）</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ハツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジム</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヒロ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>システムにアップロードする。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>５）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>７)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・支払管理</t>
-    <rPh sb="1" eb="3">
-      <t>シハライ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・給料管理</t>
-    <rPh sb="1" eb="3">
-      <t>キュウリョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・請求管理</t>
-    <rPh sb="1" eb="3">
-      <t>セイキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>試算表</t>
-    <rPh sb="0" eb="3">
-      <t>シサンヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月単位で試算機能</t>
-    <rPh sb="0" eb="3">
-      <t>ツキタンイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シサン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>期間指定で試算</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
+      <t>ヒヅケ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シテイ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>シサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決算</t>
+    <rPh sb="6" eb="8">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正不可。</t>
     <rPh sb="0" eb="2">
-      <t>ケッサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決算機能</t>
-    <rPh sb="0" eb="2">
-      <t>ケッサン</t>
+      <t>シュウセイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>４)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>６)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みんなの家</t>
-    <rPh sb="4" eb="5">
-      <t>イエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お知らせ機能</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>技術資料管理機能</t>
-    <rPh sb="0" eb="2">
-      <t>ギジュツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>部活管理</t>
-    <rPh sb="0" eb="2">
-      <t>ブカツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>写真などアップロードダウンロード機能</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12月</t>
-    <rPh sb="2" eb="3">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMS/EMSMブランチ作成</t>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・社員管理</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・年末調整</t>
-    <rPh sb="1" eb="5">
-      <t>ネンマツチョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phas1リリース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phase1結合試験</t>
-    <rPh sb="6" eb="8">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経費管理</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銀行口座管理</t>
-    <rPh sb="0" eb="4">
-      <t>ギンコウコウザ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会計-仕訳帳</t>
-  </si>
-  <si>
-    <t>試算表</t>
-  </si>
-  <si>
-    <t>8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>月次処理</t>
-  </si>
-  <si>
-    <t>月次処理</t>
-    <rPh sb="0" eb="1">
-      <t>ゲツ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バッチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下記データを仕訳に導入</t>
-    <rPh sb="0" eb="2">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シワケ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ドウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>９)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Phas2リリース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員管理</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMSM新規時</t>
-    <rPh sb="4" eb="6">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部門、初期パスワードを追加</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブモン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EMS社員自分情報変更画面に</t>
-    <rPh sb="3" eb="5">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>所属部門に表示のみ、変更不可にする</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブモン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
       <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>成果物：基本設計、ソース、結合試験</t>
-    <rPh sb="0" eb="2">
-      <t>セイカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当：</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①待機者</t>
-    <rPh sb="1" eb="3">
-      <t>タイキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>②新入社員</t>
-    <rPh sb="1" eb="5">
-      <t>シンニュウシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>③兼務</t>
-    <rPh sb="1" eb="3">
-      <t>ケンム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>楊さん</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>黄：</t>
-    <rPh sb="0" eb="1">
-      <t>コウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ph2ブランチ設定。</t>
-    <rPh sb="7" eb="9">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ph2ブランチ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AWS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>既存ソースの上、下記機能追加</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO1:下記経費種類をマスタ化する</t>
-    <rPh sb="6" eb="8">
-      <t>カキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（マスタ化＝リスト、新規、更新機能）</t>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO2:経費証跡機能</t>
-    <rPh sb="6" eb="8">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウセキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>経費ごと、証跡（PDFファイル、あるいは画像などファイル）２ファイル管理できる</t>
-    <rPh sb="0" eb="2">
-      <t>ケイヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウセキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（アップロード/ダウンロード機能）</t>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO1:マスタ化</t>
-    <rPh sb="9" eb="10">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TODO2:証跡管理</t>
-    <rPh sb="6" eb="8">
-      <t>ショウセキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当者</t>
-    <rPh sb="0" eb="3">
-      <t>タントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>孫岩岩</t>
+    <t>孫岩岩さん</t>
     <rPh sb="0" eb="1">
       <t>ソン</t>
     </rPh>
+    <rPh sb="1" eb="3">
+      <t>ガンガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①リスト・変更、新規追加機能</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②請求書をアップロードして管理する機能</t>
+    <rPh sb="1" eb="4">
+      <t>セイキュウショ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③使うマスタをマスタ管理画面で管理する</t>
     <rPh sb="1" eb="2">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全部マスタする</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フン</t>
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1387,7 +1582,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="#,##0_);\(#,##0\)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1420,6 +1619,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1429,7 +1653,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1601,13 +1825,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1657,6 +1907,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2518,18 +2813,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A7CF8C-D3FA-4235-9F5F-BE55F562D952}">
-  <dimension ref="A2:AS117"/>
+  <dimension ref="A2:AS112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="AX23" sqref="AX23"/>
+    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AC81" sqref="AC81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="49" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2537,57 +2832,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2595,65 +2890,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>17</v>
       </c>
@@ -2661,61 +2956,61 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:45" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:45" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:45" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:45" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:45" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:45" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="2:45" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="2:45" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="2:45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="X41" t="s">
         <v>31</v>
       </c>
@@ -2723,23 +3018,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Y42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Y43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="2:45" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Y45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z46" s="2" t="s">
         <v>36</v>
       </c>
@@ -2763,7 +3058,7 @@
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z47" s="2" t="s">
         <v>37</v>
       </c>
@@ -2787,7 +3082,7 @@
       <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="2:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z48" s="2"/>
       <c r="AA48" s="2" t="s">
         <v>38</v>
@@ -2811,7 +3106,7 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="26:45" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="26:45" ht="3.75" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z49" s="2"/>
       <c r="AA49" s="2" t="s">
         <v>39</v>
@@ -2835,7 +3130,7 @@
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z50" s="2"/>
       <c r="AA50" s="2" t="s">
         <v>40</v>
@@ -2859,7 +3154,7 @@
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z51" s="2"/>
       <c r="AA51" s="2" t="s">
         <v>41</v>
@@ -2883,7 +3178,7 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z52" s="2"/>
       <c r="AA52" s="2" t="s">
         <v>42</v>
@@ -2907,7 +3202,7 @@
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2" t="s">
@@ -2931,7 +3226,7 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -2953,7 +3248,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2" t="s">
@@ -2977,7 +3272,7 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2" t="s">
@@ -3001,7 +3296,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
     </row>
-    <row r="57" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -3023,7 +3318,7 @@
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
     </row>
-    <row r="58" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2" t="s">
@@ -3047,7 +3342,7 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
     </row>
-    <row r="59" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2" t="s">
@@ -3071,7 +3366,7 @@
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
     </row>
-    <row r="60" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -3093,7 +3388,7 @@
       <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
     </row>
-    <row r="61" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2" t="s">
@@ -3117,7 +3412,7 @@
       <c r="AR61" s="2"/>
       <c r="AS61" s="2"/>
     </row>
-    <row r="62" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2" t="s">
@@ -3141,7 +3436,7 @@
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
     </row>
-    <row r="63" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2" t="s">
@@ -3165,7 +3460,7 @@
       <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
     </row>
-    <row r="64" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2" t="s">
@@ -3189,7 +3484,7 @@
       <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
     </row>
-    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2" t="s">
@@ -3213,7 +3508,7 @@
       <c r="AR65" s="2"/>
       <c r="AS65" s="2"/>
     </row>
-    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2" t="s">
@@ -3237,7 +3532,7 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
     </row>
-    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2" t="s">
@@ -3261,7 +3556,7 @@
       <c r="AR67" s="2"/>
       <c r="AS67" s="2"/>
     </row>
-    <row r="68" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2" t="s">
@@ -3285,7 +3580,7 @@
       <c r="AR68" s="2"/>
       <c r="AS68" s="2"/>
     </row>
-    <row r="69" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2" t="s">
@@ -3309,238 +3604,200 @@
       <c r="AR69" s="2"/>
       <c r="AS69" s="2"/>
     </row>
-    <row r="70" spans="1:45" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="M72" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+      <c r="F72" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B80" t="s">
         <v>58</v>
       </c>
-      <c r="H80" t="s">
+      <c r="F80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D89" t="s">
         <v>68</v>
       </c>
-      <c r="L80" t="s">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D90" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C83" t="s">
-        <v>64</v>
-      </c>
-      <c r="E83" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C84" t="s">
-        <v>65</v>
-      </c>
-      <c r="E84" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C85" t="s">
+      <c r="B93" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B98" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C101" t="s">
         <v>67</v>
       </c>
-      <c r="E85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C87" t="s">
-        <v>62</v>
-      </c>
-      <c r="E87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C88" t="s">
-        <v>61</v>
-      </c>
-      <c r="E88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C92" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C93" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D94" t="s">
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C111" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>79</v>
-      </c>
-      <c r="B98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C99" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C100" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>106</v>
-      </c>
-      <c r="B102" t="s">
-        <v>108</v>
-      </c>
-      <c r="E102" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C104" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C105" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C106" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="C110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B114" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B115" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" hidden="1" x14ac:dyDescent="0.4">
-      <c r="C116" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3551,61 +3808,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458AA36D-2275-42CE-85AC-0320824C02D7}">
   <dimension ref="A2:AM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="11" width="2.625" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
-    <col min="13" max="96" width="2.625" customWidth="1"/>
+    <col min="1" max="11" width="2.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.09765625" customWidth="1"/>
+    <col min="13" max="96" width="2.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
       <c r="M2" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="N2" s="5"/>
       <c r="O2" s="3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="5"/>
       <c r="S2" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="5"/>
       <c r="W2" s="3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="5"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
       <c r="M3" s="12">
         <v>23</v>
       </c>
@@ -3686,9 +3943,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -3729,9 +3986,9 @@
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A5" s="9" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3772,10 +4029,10 @@
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A6" s="11"/>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -3805,10 +4062,10 @@
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -3838,10 +4095,10 @@
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A8" s="11"/>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -3871,10 +4128,10 @@
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3914,9 +4171,9 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
     </row>
-    <row r="10" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3957,9 +4214,9 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
     </row>
-    <row r="11" spans="1:39" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3972,7 +4229,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -4002,10 +4259,10 @@
       <c r="AL11" s="13"/>
       <c r="AM11" s="13"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4017,7 +4274,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
@@ -4047,10 +4304,10 @@
       <c r="AL12" s="13"/>
       <c r="AM12" s="13"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4062,7 +4319,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -4092,9 +4349,9 @@
       <c r="AL13" s="13"/>
       <c r="AM13" s="13"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -4107,7 +4364,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
@@ -4137,9 +4394,9 @@
       <c r="AL14" s="12"/>
       <c r="AM14" s="12"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -4180,9 +4437,9 @@
       <c r="AL15" s="12"/>
       <c r="AM15" s="12"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -4223,9 +4480,9 @@
       <c r="AL16" s="12"/>
       <c r="AM16" s="12"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -4266,9 +4523,9 @@
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -4309,9 +4566,9 @@
       <c r="AL18" s="12"/>
       <c r="AM18" s="12"/>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -4352,65 +4609,65 @@
       <c r="AL19" s="12"/>
       <c r="AM19" s="12"/>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4428,40 +4685,40 @@
       <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="49" width="3.625" customWidth="1"/>
+    <col min="1" max="49" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="26:45" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="26:45" x14ac:dyDescent="0.45">
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -4483,7 +4740,7 @@
       <c r="AR43" s="2"/>
       <c r="AS43" s="2"/>
     </row>
-    <row r="44" spans="26:45" x14ac:dyDescent="0.4">
+    <row r="44" spans="26:45" x14ac:dyDescent="0.45">
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -4505,7 +4762,7 @@
       <c r="AR44" s="2"/>
       <c r="AS44" s="2"/>
     </row>
-    <row r="45" spans="26:45" x14ac:dyDescent="0.4">
+    <row r="45" spans="26:45" x14ac:dyDescent="0.45">
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -4527,7 +4784,7 @@
       <c r="AR45" s="2"/>
       <c r="AS45" s="2"/>
     </row>
-    <row r="46" spans="26:45" ht="3.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="26:45" ht="3.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -4549,7 +4806,7 @@
       <c r="AR46" s="2"/>
       <c r="AS46" s="2"/>
     </row>
-    <row r="47" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -4571,7 +4828,7 @@
       <c r="AR47" s="2"/>
       <c r="AS47" s="2"/>
     </row>
-    <row r="48" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
@@ -4593,7 +4850,7 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
     </row>
-    <row r="49" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -4615,7 +4872,7 @@
       <c r="AR49" s="2"/>
       <c r="AS49" s="2"/>
     </row>
-    <row r="50" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -4637,7 +4894,7 @@
       <c r="AR50" s="2"/>
       <c r="AS50" s="2"/>
     </row>
-    <row r="51" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -4659,7 +4916,7 @@
       <c r="AR51" s="2"/>
       <c r="AS51" s="2"/>
     </row>
-    <row r="52" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
@@ -4681,7 +4938,7 @@
       <c r="AR52" s="2"/>
       <c r="AS52" s="2"/>
     </row>
-    <row r="53" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -4703,7 +4960,7 @@
       <c r="AR53" s="2"/>
       <c r="AS53" s="2"/>
     </row>
-    <row r="54" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -4725,7 +4982,7 @@
       <c r="AR54" s="2"/>
       <c r="AS54" s="2"/>
     </row>
-    <row r="55" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
@@ -4747,7 +5004,7 @@
       <c r="AR55" s="2"/>
       <c r="AS55" s="2"/>
     </row>
-    <row r="56" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
@@ -4769,7 +5026,7 @@
       <c r="AR56" s="2"/>
       <c r="AS56" s="2"/>
     </row>
-    <row r="57" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -4791,7 +5048,7 @@
       <c r="AR57" s="2"/>
       <c r="AS57" s="2"/>
     </row>
-    <row r="58" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -4813,7 +5070,7 @@
       <c r="AR58" s="2"/>
       <c r="AS58" s="2"/>
     </row>
-    <row r="59" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
@@ -4835,7 +5092,7 @@
       <c r="AR59" s="2"/>
       <c r="AS59" s="2"/>
     </row>
-    <row r="60" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -4857,7 +5114,7 @@
       <c r="AR60" s="2"/>
       <c r="AS60" s="2"/>
     </row>
-    <row r="61" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
@@ -4879,7 +5136,7 @@
       <c r="AR61" s="2"/>
       <c r="AS61" s="2"/>
     </row>
-    <row r="62" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
@@ -4901,7 +5158,7 @@
       <c r="AR62" s="2"/>
       <c r="AS62" s="2"/>
     </row>
-    <row r="63" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -4923,7 +5180,7 @@
       <c r="AR63" s="2"/>
       <c r="AS63" s="2"/>
     </row>
-    <row r="64" spans="26:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="26:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
@@ -4945,7 +5202,7 @@
       <c r="AR64" s="2"/>
       <c r="AS64" s="2"/>
     </row>
-    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
@@ -4967,7 +5224,7 @@
       <c r="AR65" s="2"/>
       <c r="AS65" s="2"/>
     </row>
-    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:45" hidden="1" x14ac:dyDescent="0.45">
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
@@ -4989,37 +5246,283 @@
       <c r="AR66" s="2"/>
       <c r="AS66" s="2"/>
     </row>
-    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:45" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC1C23F-CDFC-45F2-A699-0C51B03475D3}">
+  <dimension ref="A2:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="20.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="17.09765625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="22">
+        <v>300000</v>
+      </c>
+      <c r="G3" s="22">
+        <v>300000</v>
+      </c>
+      <c r="H3" s="23">
+        <f>SUM(G3:G8)</f>
+        <v>600000</v>
+      </c>
+      <c r="I3" s="22">
+        <f>G3*1.1</f>
+        <v>330000</v>
+      </c>
+      <c r="J3" s="23">
+        <f>SUM(I3:I7)</f>
+        <v>660000</v>
+      </c>
+      <c r="K3" s="23"/>
+      <c r="L3" s="24">
+        <v>45565</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="22">
+        <v>300000</v>
+      </c>
+      <c r="G4" s="22">
+        <v>300000</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27">
+        <f t="shared" ref="I4" si="0">G4*1.1</f>
+        <v>330000</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="24">
+        <v>45565</v>
+      </c>
+      <c r="M4" s="29"/>
+      <c r="N4" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF30734-A01D-4DC7-BE83-EA5657118353}">
+  <dimension ref="B1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="30">
+        <v>6825</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="30">
+        <v>79820</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>67890</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="30">
+        <v>1238384</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>901234</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/要件定義/開発内容.xlsx
+++ b/DOC/要件定義/開発内容.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E76DA-7AF4-4EFD-A095-CADC8641D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ADD0B4-E8CC-48D0-A348-EC490DF240B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="336" windowWidth="21528" windowHeight="11964" activeTab="4" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
   </bookViews>
   <sheets>
     <sheet name="PH2" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="PH3" sheetId="3" r:id="rId3"/>
     <sheet name="支払リストサンプル" sheetId="4" r:id="rId4"/>
     <sheet name="銀行口座リストサンプル" sheetId="5" r:id="rId5"/>
+    <sheet name="RECT要件" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="190">
   <si>
     <t>1)</t>
     <phoneticPr fontId="1"/>
@@ -1574,6 +1575,216 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①会計</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補正仕訳</t>
+    <rPh sb="0" eb="2">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試算</t>
+    <rPh sb="0" eb="2">
+      <t>シサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②取込</t>
+    <rPh sb="1" eb="3">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①会計をクリック、下の部分が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②取込クリック、右部分が表示される</t>
+    <rPh sb="1" eb="3">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座データリスト：</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③口座取込</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③口座取込クリックすると、口座Tblのデータをした部分の口座データリストに表示される</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トリコミ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕訳</t>
+    <rPh sb="0" eb="2">
+      <t>シワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④仕訳</t>
+    <rPh sb="1" eb="3">
+      <t>シワケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤口座へ</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④仕訳ボタンをクリック、該当行の仕訳を下の</t>
+    <rPh sb="1" eb="3">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕訳リストに作成される（この場合、まだ半分（借方か貸方化））</t>
+    <rPh sb="0" eb="2">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カリカタ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>カシカタカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤口座へクリック、仕訳から口座へ移動</t>
+    <rPh sb="1" eb="3">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口座から削除</t>
+    <rPh sb="0" eb="2">
+      <t>コウザ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥登録</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥登録クリック、仕訳Tblへ登録する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シワケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,7 +1795,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
-    <numFmt numFmtId="180" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1653,7 +1864,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1851,13 +2062,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1948,10 +2179,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2815,7 +3055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A7CF8C-D3FA-4235-9F5F-BE55F562D952}">
   <dimension ref="A2:AS112"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A92" workbookViewId="0">
       <selection activeCell="AC81" sqref="AC81"/>
     </sheetView>
   </sheetViews>
@@ -3808,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458AA36D-2275-42CE-85AC-0320824C02D7}">
   <dimension ref="A2:AM35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
@@ -5435,7 +5675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF30734-A01D-4DC7-BE83-EA5657118353}">
   <dimension ref="B1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -5529,4 +5769,589 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75780C38-C68C-4DDB-B6BC-B6EE4CB7C5A4}">
+  <dimension ref="B2:T28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="2.796875" customWidth="1"/>
+    <col min="6" max="6" width="9.796875" customWidth="1"/>
+    <col min="16" max="16" width="3.3984375" customWidth="1"/>
+    <col min="17" max="17" width="10.59765625" customWidth="1"/>
+    <col min="18" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="32"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B3" s="11"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="T3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B5" s="11"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="T5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34"/>
+      <c r="T6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B7" s="11"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B8" s="11"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="T9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B10" s="11"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="T10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B11" s="11"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34"/>
+      <c r="T11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B13" s="11"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B14" s="11"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B16" s="11"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="8"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B17" s="11"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B18" s="11"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="R18" s="34"/>
+      <c r="T18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B19" s="11"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B20" s="11"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B21" s="11"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B22" s="11"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B23" s="11"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B24" s="11"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="T24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B25" s="11"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B26" s="11"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B27" s="11"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="34"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.45">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>